--- a/Data/Big_data.xlsx
+++ b/Data/Big_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -524,13 +524,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -979,6 +979,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <f>SUM(SUBSTITUTE(B6,"ms",""),SUBSTITUTE(B7,"ms",""),SUBSTITUTE(B8,"ms",""))</f>
+        <v>43333</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="0">SUM(SUBSTITUTE(C6,"ms",""),SUBSTITUTE(C7,"ms",""),SUBSTITUTE(C8,"ms",""))</f>
+        <v>37189</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>54630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -989,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1017,7 +1031,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1034,7 +1048,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1063,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1064,7 +1078,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1093,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1096,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1125,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1126,7 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1155,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1156,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1185,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1188,7 +1202,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1217,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1247,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1262,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +1277,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1292,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
